--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.47416293421521</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H2">
-        <v>5.47416293421521</v>
+        <v>17.529422</v>
       </c>
       <c r="I2">
-        <v>0.1643834063880823</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J2">
-        <v>0.1643834063880823</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.51926971943297</v>
+        <v>7.682465333333333</v>
       </c>
       <c r="N2">
-        <v>5.51926971943297</v>
+        <v>23.047396</v>
       </c>
       <c r="O2">
-        <v>0.09762929873254114</v>
+        <v>0.1143537482417799</v>
       </c>
       <c r="P2">
-        <v>0.09762929873254114</v>
+        <v>0.1279355392260154</v>
       </c>
       <c r="Q2">
-        <v>30.21338172205634</v>
+        <v>44.88972560945689</v>
       </c>
       <c r="R2">
-        <v>30.21338172205634</v>
+        <v>404.007530485112</v>
       </c>
       <c r="S2">
-        <v>0.0160486366889348</v>
+        <v>0.01897654644956843</v>
       </c>
       <c r="T2">
-        <v>0.0160486366889348</v>
+        <v>0.02297007627610573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.47416293421521</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H3">
-        <v>5.47416293421521</v>
+        <v>17.529422</v>
       </c>
       <c r="I3">
-        <v>0.1643834063880823</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J3">
-        <v>0.1643834063880823</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6587149437235</v>
+        <v>16.33066133333334</v>
       </c>
       <c r="N3">
-        <v>14.6587149437235</v>
+        <v>48.991984</v>
       </c>
       <c r="O3">
-        <v>0.2592951845127393</v>
+        <v>0.2430824291039782</v>
       </c>
       <c r="P3">
-        <v>0.2592951845127393</v>
+        <v>0.2719533213553636</v>
       </c>
       <c r="Q3">
-        <v>80.24419400815778</v>
+        <v>95.4223513503609</v>
       </c>
       <c r="R3">
-        <v>80.24419400815778</v>
+        <v>858.801162153248</v>
       </c>
       <c r="S3">
-        <v>0.0426238256902304</v>
+        <v>0.04033855538528142</v>
       </c>
       <c r="T3">
-        <v>0.0426238256902304</v>
+        <v>0.04882762501228997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.47416293421521</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H4">
-        <v>5.47416293421521</v>
+        <v>17.529422</v>
       </c>
       <c r="I4">
-        <v>0.1643834063880823</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J4">
-        <v>0.1643834063880823</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.12655681613066</v>
+        <v>8.879703999999998</v>
       </c>
       <c r="N4">
-        <v>7.12655681613066</v>
+        <v>26.639112</v>
       </c>
       <c r="O4">
-        <v>0.1260602905284229</v>
+        <v>0.1321746850287372</v>
       </c>
       <c r="P4">
-        <v>0.1260602905284229</v>
+        <v>0.1478730680994164</v>
       </c>
       <c r="Q4">
-        <v>39.01193317144121</v>
+        <v>51.88535955036266</v>
       </c>
       <c r="R4">
-        <v>39.01193317144121</v>
+        <v>466.968235953264</v>
       </c>
       <c r="S4">
-        <v>0.02072221996733347</v>
+        <v>0.02193385952336029</v>
       </c>
       <c r="T4">
-        <v>0.02072221996733347</v>
+        <v>0.02654974273743218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.47416293421521</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H5">
-        <v>5.47416293421521</v>
+        <v>17.529422</v>
       </c>
       <c r="I5">
-        <v>0.1643834063880823</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J5">
-        <v>0.1643834063880823</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1929764489341</v>
+        <v>12.892516</v>
       </c>
       <c r="N5">
-        <v>12.1929764489341</v>
+        <v>38.677548</v>
       </c>
       <c r="O5">
-        <v>0.215679211324016</v>
+        <v>0.1919055231489648</v>
       </c>
       <c r="P5">
-        <v>0.215679211324016</v>
+        <v>0.2146981359334519</v>
       </c>
       <c r="Q5">
-        <v>66.74633973451404</v>
+        <v>75.33278453525067</v>
       </c>
       <c r="R5">
-        <v>66.74633973451404</v>
+        <v>677.995060817256</v>
       </c>
       <c r="S5">
-        <v>0.03545408344453681</v>
+        <v>0.03184595284332394</v>
       </c>
       <c r="T5">
-        <v>0.03545408344453681</v>
+        <v>0.03854779202530042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.47416293421521</v>
+        <v>5.843140666666667</v>
       </c>
       <c r="H6">
-        <v>5.47416293421521</v>
+        <v>17.529422</v>
       </c>
       <c r="I6">
-        <v>0.1643834063880823</v>
+        <v>0.1659459942619985</v>
       </c>
       <c r="J6">
-        <v>0.1643834063880823</v>
+        <v>0.1795441392991355</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.0354060104542</v>
+        <v>21.396232</v>
       </c>
       <c r="N6">
-        <v>17.0354060104542</v>
+        <v>42.792464</v>
       </c>
       <c r="O6">
-        <v>0.3013360149022807</v>
+        <v>0.3184836144765398</v>
       </c>
       <c r="P6">
-        <v>0.3013360149022807</v>
+        <v>0.2375399353857526</v>
       </c>
       <c r="Q6">
-        <v>93.25458815173538</v>
+        <v>125.0211933126347</v>
       </c>
       <c r="R6">
-        <v>93.25458815173538</v>
+        <v>750.127159875808</v>
       </c>
       <c r="S6">
-        <v>0.04953464059704685</v>
+        <v>0.05285108006046442</v>
       </c>
       <c r="T6">
-        <v>0.04953464059704685</v>
+        <v>0.04264890324800722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.39982094805066</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H7">
-        <v>4.39982094805066</v>
+        <v>14.023321</v>
       </c>
       <c r="I7">
-        <v>0.1321220364884695</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J7">
-        <v>0.1321220364884695</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.51926971943297</v>
+        <v>7.682465333333333</v>
       </c>
       <c r="N7">
-        <v>5.51926971943297</v>
+        <v>23.047396</v>
       </c>
       <c r="O7">
-        <v>0.09762929873254114</v>
+        <v>0.1143537482417799</v>
       </c>
       <c r="P7">
-        <v>0.09762929873254114</v>
+        <v>0.1279355392260154</v>
       </c>
       <c r="Q7">
-        <v>24.28379852950287</v>
+        <v>35.91122581356845</v>
       </c>
       <c r="R7">
-        <v>24.28379852950287</v>
+        <v>323.201032322116</v>
       </c>
       <c r="S7">
-        <v>0.01289898176948449</v>
+        <v>0.0151810026784516</v>
       </c>
       <c r="T7">
-        <v>0.01289898176948449</v>
+        <v>0.0183757771941548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.39982094805066</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H8">
-        <v>4.39982094805066</v>
+        <v>14.023321</v>
       </c>
       <c r="I8">
-        <v>0.1321220364884695</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J8">
-        <v>0.1321220364884695</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.6587149437235</v>
+        <v>16.33066133333334</v>
       </c>
       <c r="N8">
-        <v>14.6587149437235</v>
+        <v>48.991984</v>
       </c>
       <c r="O8">
-        <v>0.2592951845127393</v>
+        <v>0.2430824291039782</v>
       </c>
       <c r="P8">
-        <v>0.2592951845127393</v>
+        <v>0.2719533213553636</v>
       </c>
       <c r="Q8">
-        <v>64.49572108089791</v>
+        <v>76.33670200654046</v>
       </c>
       <c r="R8">
-        <v>64.49572108089791</v>
+        <v>687.0303180588641</v>
       </c>
       <c r="S8">
-        <v>0.03425860782947657</v>
+        <v>0.03227034587016504</v>
       </c>
       <c r="T8">
-        <v>0.03425860782947657</v>
+        <v>0.03906149667769829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.39982094805066</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H9">
-        <v>4.39982094805066</v>
+        <v>14.023321</v>
       </c>
       <c r="I9">
-        <v>0.1321220364884695</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J9">
-        <v>0.1321220364884695</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.12655681613066</v>
+        <v>8.879703999999998</v>
       </c>
       <c r="N9">
-        <v>7.12655681613066</v>
+        <v>26.639112</v>
       </c>
       <c r="O9">
-        <v>0.1260602905284229</v>
+        <v>0.1321746850287372</v>
       </c>
       <c r="P9">
-        <v>0.1260602905284229</v>
+        <v>0.1478730680994164</v>
       </c>
       <c r="Q9">
-        <v>31.35557396708489</v>
+        <v>41.50764652566133</v>
       </c>
       <c r="R9">
-        <v>31.35557396708489</v>
+        <v>373.568818730952</v>
       </c>
       <c r="S9">
-        <v>0.01665534230494336</v>
+        <v>0.01754681659583461</v>
       </c>
       <c r="T9">
-        <v>0.01665534230494336</v>
+        <v>0.02123946613153761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.39982094805066</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H10">
-        <v>4.39982094805066</v>
+        <v>14.023321</v>
       </c>
       <c r="I10">
-        <v>0.1321220364884695</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J10">
-        <v>0.1321220364884695</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.1929764489341</v>
+        <v>12.892516</v>
       </c>
       <c r="N10">
-        <v>12.1929764489341</v>
+        <v>38.677548</v>
       </c>
       <c r="O10">
-        <v>0.215679211324016</v>
+        <v>0.1919055231489648</v>
       </c>
       <c r="P10">
-        <v>0.215679211324016</v>
+        <v>0.2146981359334519</v>
       </c>
       <c r="Q10">
-        <v>53.6469131991086</v>
+        <v>60.26529678854534</v>
       </c>
       <c r="R10">
-        <v>53.6469131991086</v>
+        <v>542.3876710969081</v>
       </c>
       <c r="S10">
-        <v>0.02849597662835597</v>
+        <v>0.02547636877432663</v>
       </c>
       <c r="T10">
-        <v>0.02849597662835597</v>
+        <v>0.03083775730951243</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.39982094805066</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H11">
-        <v>4.39982094805066</v>
+        <v>14.023321</v>
       </c>
       <c r="I11">
-        <v>0.1321220364884695</v>
+        <v>0.132754744919722</v>
       </c>
       <c r="J11">
-        <v>0.1321220364884695</v>
+        <v>0.1436330929257389</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0354060104542</v>
+        <v>21.396232</v>
       </c>
       <c r="N11">
-        <v>17.0354060104542</v>
+        <v>42.792464</v>
       </c>
       <c r="O11">
-        <v>0.3013360149022807</v>
+        <v>0.3184836144765398</v>
       </c>
       <c r="P11">
-        <v>0.3013360149022807</v>
+        <v>0.2375399353857526</v>
       </c>
       <c r="Q11">
-        <v>74.95273622334452</v>
+        <v>100.0154098421574</v>
       </c>
       <c r="R11">
-        <v>74.95273622334452</v>
+        <v>600.092459052944</v>
       </c>
       <c r="S11">
-        <v>0.03981312795620913</v>
+        <v>0.04228021100094414</v>
       </c>
       <c r="T11">
-        <v>0.03981312795620913</v>
+        <v>0.03411859561283583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.15698887839618</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H12">
-        <v>7.15698887839618</v>
+        <v>21.713777</v>
       </c>
       <c r="I12">
-        <v>0.2149169152344658</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J12">
-        <v>0.2149169152344658</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.51926971943297</v>
+        <v>7.682465333333333</v>
       </c>
       <c r="N12">
-        <v>5.51926971943297</v>
+        <v>23.047396</v>
       </c>
       <c r="O12">
-        <v>0.09762929873254114</v>
+        <v>0.1143537482417799</v>
       </c>
       <c r="P12">
-        <v>0.09762929873254114</v>
+        <v>0.1279355392260154</v>
       </c>
       <c r="Q12">
-        <v>39.50135199885057</v>
+        <v>55.60511301941022</v>
       </c>
       <c r="R12">
-        <v>39.50135199885057</v>
+        <v>500.446017174692</v>
       </c>
       <c r="S12">
-        <v>0.02098218772010188</v>
+        <v>0.02350633682251877</v>
       </c>
       <c r="T12">
-        <v>0.02098218772010188</v>
+        <v>0.02845314089262899</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.15698887839618</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H13">
-        <v>7.15698887839618</v>
+        <v>21.713777</v>
       </c>
       <c r="I13">
-        <v>0.2149169152344658</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J13">
-        <v>0.2149169152344658</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.6587149437235</v>
+        <v>16.33066133333334</v>
       </c>
       <c r="N13">
-        <v>14.6587149437235</v>
+        <v>48.991984</v>
       </c>
       <c r="O13">
-        <v>0.2592951845127393</v>
+        <v>0.2430824291039782</v>
       </c>
       <c r="P13">
-        <v>0.2592951845127393</v>
+        <v>0.2719533213553636</v>
       </c>
       <c r="Q13">
-        <v>104.912259823809</v>
+        <v>118.2001128181742</v>
       </c>
       <c r="R13">
-        <v>104.912259823809</v>
+        <v>1063.801015363568</v>
       </c>
       <c r="S13">
-        <v>0.05572692119062955</v>
+        <v>0.04996755718118657</v>
       </c>
       <c r="T13">
-        <v>0.05572692119062955</v>
+        <v>0.06048300742354691</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.15698887839618</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H14">
-        <v>7.15698887839618</v>
+        <v>21.713777</v>
       </c>
       <c r="I14">
-        <v>0.2149169152344658</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J14">
-        <v>0.2149169152344658</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.12655681613066</v>
+        <v>8.879703999999998</v>
       </c>
       <c r="N14">
-        <v>7.12655681613066</v>
+        <v>26.639112</v>
       </c>
       <c r="O14">
-        <v>0.1260602905284229</v>
+        <v>0.1321746850287372</v>
       </c>
       <c r="P14">
-        <v>0.1260602905284229</v>
+        <v>0.1478730680994164</v>
       </c>
       <c r="Q14">
-        <v>51.00468787430562</v>
+        <v>64.27063749400266</v>
       </c>
       <c r="R14">
-        <v>51.00468787430562</v>
+        <v>578.4357374460239</v>
       </c>
       <c r="S14">
-        <v>0.0270924887739292</v>
+        <v>0.02716957435559321</v>
       </c>
       <c r="T14">
-        <v>0.0270924887739292</v>
+        <v>0.03288729047700328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.15698887839618</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H15">
-        <v>7.15698887839618</v>
+        <v>21.713777</v>
       </c>
       <c r="I15">
-        <v>0.2149169152344658</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J15">
-        <v>0.2149169152344658</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1929764489341</v>
+        <v>12.892516</v>
       </c>
       <c r="N15">
-        <v>12.1929764489341</v>
+        <v>38.677548</v>
       </c>
       <c r="O15">
-        <v>0.215679211324016</v>
+        <v>0.1919055231489648</v>
       </c>
       <c r="P15">
-        <v>0.215679211324016</v>
+        <v>0.2146981359334519</v>
       </c>
       <c r="Q15">
-        <v>87.2649968395679</v>
+        <v>93.31507246431067</v>
       </c>
       <c r="R15">
-        <v>87.2649968395679</v>
+        <v>839.8356521787961</v>
       </c>
       <c r="S15">
-        <v>0.04635311077795998</v>
+        <v>0.03944773070055885</v>
       </c>
       <c r="T15">
-        <v>0.04635311077795998</v>
+        <v>0.04774933023346415</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.15698887839618</v>
+        <v>7.237925666666666</v>
       </c>
       <c r="H16">
-        <v>7.15698887839618</v>
+        <v>21.713777</v>
       </c>
       <c r="I16">
-        <v>0.2149169152344658</v>
+        <v>0.2055580790654886</v>
       </c>
       <c r="J16">
-        <v>0.2149169152344658</v>
+        <v>0.2224021649087098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.0354060104542</v>
+        <v>21.396232</v>
       </c>
       <c r="N16">
-        <v>17.0354060104542</v>
+        <v>42.792464</v>
       </c>
       <c r="O16">
-        <v>0.3013360149022807</v>
+        <v>0.3184836144765398</v>
       </c>
       <c r="P16">
-        <v>0.3013360149022807</v>
+        <v>0.2375399353857526</v>
       </c>
       <c r="Q16">
-        <v>121.9222113557841</v>
+        <v>154.8643367627547</v>
       </c>
       <c r="R16">
-        <v>121.9222113557841</v>
+        <v>929.1860205765281</v>
       </c>
       <c r="S16">
-        <v>0.06476220677184519</v>
+        <v>0.06546688000563115</v>
       </c>
       <c r="T16">
-        <v>0.06476220677184519</v>
+        <v>0.05282939588206642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.1266097744837</v>
+        <v>9.455236333333334</v>
       </c>
       <c r="H17">
-        <v>9.1266097744837</v>
+        <v>28.365709</v>
       </c>
       <c r="I17">
-        <v>0.2740625775179781</v>
+        <v>0.2685300053219963</v>
       </c>
       <c r="J17">
-        <v>0.2740625775179781</v>
+        <v>0.290534212024489</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.51926971943297</v>
+        <v>7.682465333333333</v>
       </c>
       <c r="N17">
-        <v>5.51926971943297</v>
+        <v>23.047396</v>
       </c>
       <c r="O17">
-        <v>0.09762929873254114</v>
+        <v>0.1143537482417799</v>
       </c>
       <c r="P17">
-        <v>0.09762929873254114</v>
+        <v>0.1279355392260154</v>
       </c>
       <c r="Q17">
-        <v>50.37222096938885</v>
+        <v>72.63952534930711</v>
       </c>
       <c r="R17">
-        <v>50.37222096938885</v>
+        <v>653.7557281437639</v>
       </c>
       <c r="S17">
-        <v>0.0267565372519129</v>
+        <v>0.03070741262395539</v>
       </c>
       <c r="T17">
-        <v>0.0267565372519129</v>
+        <v>0.0371696510789585</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.1266097744837</v>
+        <v>9.455236333333334</v>
       </c>
       <c r="H18">
-        <v>9.1266097744837</v>
+        <v>28.365709</v>
       </c>
       <c r="I18">
-        <v>0.2740625775179781</v>
+        <v>0.2685300053219963</v>
       </c>
       <c r="J18">
-        <v>0.2740625775179781</v>
+        <v>0.290534212024489</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.6587149437235</v>
+        <v>16.33066133333334</v>
       </c>
       <c r="N18">
-        <v>14.6587149437235</v>
+        <v>48.991984</v>
       </c>
       <c r="O18">
-        <v>0.2592951845127393</v>
+        <v>0.2430824291039782</v>
       </c>
       <c r="P18">
-        <v>0.2592951845127393</v>
+        <v>0.2719533213553636</v>
       </c>
       <c r="Q18">
-        <v>133.7843710867572</v>
+        <v>154.4102623862951</v>
       </c>
       <c r="R18">
-        <v>133.7843710867572</v>
+        <v>1389.692361476656</v>
       </c>
       <c r="S18">
-        <v>0.07106310660556105</v>
+        <v>0.06527492598097506</v>
       </c>
       <c r="T18">
-        <v>0.07106310660556105</v>
+        <v>0.07901174392742319</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.1266097744837</v>
+        <v>9.455236333333334</v>
       </c>
       <c r="H19">
-        <v>9.1266097744837</v>
+        <v>28.365709</v>
       </c>
       <c r="I19">
-        <v>0.2740625775179781</v>
+        <v>0.2685300053219963</v>
       </c>
       <c r="J19">
-        <v>0.2740625775179781</v>
+        <v>0.290534212024489</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.12655681613066</v>
+        <v>8.879703999999998</v>
       </c>
       <c r="N19">
-        <v>7.12655681613066</v>
+        <v>26.639112</v>
       </c>
       <c r="O19">
-        <v>0.1260602905284229</v>
+        <v>0.1321746850287372</v>
       </c>
       <c r="P19">
-        <v>0.1260602905284229</v>
+        <v>0.1478730680994164</v>
       </c>
       <c r="Q19">
-        <v>65.04130309651153</v>
+        <v>83.95969989004531</v>
       </c>
       <c r="R19">
-        <v>65.04130309651153</v>
+        <v>755.6372990104079</v>
       </c>
       <c r="S19">
-        <v>0.03454840814488475</v>
+        <v>0.03549286887419999</v>
       </c>
       <c r="T19">
-        <v>0.03454840814488475</v>
+        <v>0.04296218531990755</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.1266097744837</v>
+        <v>9.455236333333334</v>
       </c>
       <c r="H20">
-        <v>9.1266097744837</v>
+        <v>28.365709</v>
       </c>
       <c r="I20">
-        <v>0.2740625775179781</v>
+        <v>0.2685300053219963</v>
       </c>
       <c r="J20">
-        <v>0.2740625775179781</v>
+        <v>0.290534212024489</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.1929764489341</v>
+        <v>12.892516</v>
       </c>
       <c r="N20">
-        <v>12.1929764489341</v>
+        <v>38.677548</v>
       </c>
       <c r="O20">
-        <v>0.215679211324016</v>
+        <v>0.1919055231489648</v>
       </c>
       <c r="P20">
-        <v>0.215679211324016</v>
+        <v>0.2146981359334519</v>
       </c>
       <c r="Q20">
-        <v>111.2805380388915</v>
+        <v>121.9017857112813</v>
       </c>
       <c r="R20">
-        <v>111.2805380388915</v>
+        <v>1097.116071401532</v>
       </c>
       <c r="S20">
-        <v>0.05910960057250453</v>
+        <v>0.05153239115251201</v>
       </c>
       <c r="T20">
-        <v>0.05910960057250453</v>
+        <v>0.06237715374655207</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.1266097744837</v>
+        <v>9.455236333333334</v>
       </c>
       <c r="H21">
-        <v>9.1266097744837</v>
+        <v>28.365709</v>
       </c>
       <c r="I21">
-        <v>0.2740625775179781</v>
+        <v>0.2685300053219963</v>
       </c>
       <c r="J21">
-        <v>0.2740625775179781</v>
+        <v>0.290534212024489</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.0354060104542</v>
+        <v>21.396232</v>
       </c>
       <c r="N21">
-        <v>17.0354060104542</v>
+        <v>42.792464</v>
       </c>
       <c r="O21">
-        <v>0.3013360149022807</v>
+        <v>0.3184836144765398</v>
       </c>
       <c r="P21">
-        <v>0.3013360149022807</v>
+        <v>0.2375399353857526</v>
       </c>
       <c r="Q21">
-        <v>155.4755030073097</v>
+        <v>202.3064302028293</v>
       </c>
       <c r="R21">
-        <v>155.4755030073097</v>
+        <v>1213.838581216976</v>
       </c>
       <c r="S21">
-        <v>0.08258492494311492</v>
+        <v>0.08552240669035387</v>
       </c>
       <c r="T21">
-        <v>0.08258492494311492</v>
+        <v>0.06901347795164767</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.14360676672093</v>
+        <v>8.000355000000001</v>
       </c>
       <c r="H22">
-        <v>7.14360676672093</v>
+        <v>16.00071</v>
       </c>
       <c r="I22">
-        <v>0.2145150643710043</v>
+        <v>0.2272111764307947</v>
       </c>
       <c r="J22">
-        <v>0.2145150643710043</v>
+        <v>0.1638863908419269</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.51926971943297</v>
+        <v>7.682465333333333</v>
       </c>
       <c r="N22">
-        <v>5.51926971943297</v>
+        <v>23.047396</v>
       </c>
       <c r="O22">
-        <v>0.09762929873254114</v>
+        <v>0.1143537482417799</v>
       </c>
       <c r="P22">
-        <v>0.09762929873254114</v>
+        <v>0.1279355392260154</v>
       </c>
       <c r="Q22">
-        <v>39.4274925150993</v>
+        <v>61.46244994186</v>
       </c>
       <c r="R22">
-        <v>39.4274925150993</v>
+        <v>368.77469965116</v>
       </c>
       <c r="S22">
-        <v>0.02094295530210707</v>
+        <v>0.02598244966728573</v>
       </c>
       <c r="T22">
-        <v>0.02094295530210707</v>
+        <v>0.02096689378416743</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.14360676672093</v>
+        <v>8.000355000000001</v>
       </c>
       <c r="H23">
-        <v>7.14360676672093</v>
+        <v>16.00071</v>
       </c>
       <c r="I23">
-        <v>0.2145150643710043</v>
+        <v>0.2272111764307947</v>
       </c>
       <c r="J23">
-        <v>0.2145150643710043</v>
+        <v>0.1638863908419269</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.6587149437235</v>
+        <v>16.33066133333334</v>
       </c>
       <c r="N23">
-        <v>14.6587149437235</v>
+        <v>48.991984</v>
       </c>
       <c r="O23">
-        <v>0.2592951845127393</v>
+        <v>0.2430824291039782</v>
       </c>
       <c r="P23">
-        <v>0.2592951845127393</v>
+        <v>0.2719533213553636</v>
       </c>
       <c r="Q23">
-        <v>104.7160952634164</v>
+        <v>130.65108805144</v>
       </c>
       <c r="R23">
-        <v>104.7160952634164</v>
+        <v>783.9065283086401</v>
       </c>
       <c r="S23">
-        <v>0.0556227231968417</v>
+        <v>0.05523104468637013</v>
       </c>
       <c r="T23">
-        <v>0.0556227231968417</v>
+        <v>0.04456944831440525</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.14360676672093</v>
+        <v>8.000355000000001</v>
       </c>
       <c r="H24">
-        <v>7.14360676672093</v>
+        <v>16.00071</v>
       </c>
       <c r="I24">
-        <v>0.2145150643710043</v>
+        <v>0.2272111764307947</v>
       </c>
       <c r="J24">
-        <v>0.2145150643710043</v>
+        <v>0.1638863908419269</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.12655681613066</v>
+        <v>8.879703999999998</v>
       </c>
       <c r="N24">
-        <v>7.12655681613066</v>
+        <v>26.639112</v>
       </c>
       <c r="O24">
-        <v>0.1260602905284229</v>
+        <v>0.1321746850287372</v>
       </c>
       <c r="P24">
-        <v>0.1260602905284229</v>
+        <v>0.1478730680994164</v>
       </c>
       <c r="Q24">
-        <v>50.90931949513215</v>
+        <v>71.04078429492</v>
       </c>
       <c r="R24">
-        <v>50.90931949513215</v>
+        <v>426.24470576952</v>
       </c>
       <c r="S24">
-        <v>0.02704183133733215</v>
+        <v>0.03003156567974913</v>
       </c>
       <c r="T24">
-        <v>0.02704183133733215</v>
+        <v>0.02423438343353583</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.14360676672093</v>
+        <v>8.000355000000001</v>
       </c>
       <c r="H25">
-        <v>7.14360676672093</v>
+        <v>16.00071</v>
       </c>
       <c r="I25">
-        <v>0.2145150643710043</v>
+        <v>0.2272111764307947</v>
       </c>
       <c r="J25">
-        <v>0.2145150643710043</v>
+        <v>0.1638863908419269</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.1929764489341</v>
+        <v>12.892516</v>
       </c>
       <c r="N25">
-        <v>12.1929764489341</v>
+        <v>38.677548</v>
       </c>
       <c r="O25">
-        <v>0.215679211324016</v>
+        <v>0.1919055231489648</v>
       </c>
       <c r="P25">
-        <v>0.215679211324016</v>
+        <v>0.2146981359334519</v>
       </c>
       <c r="Q25">
-        <v>87.10182906707458</v>
+        <v>103.14470484318</v>
       </c>
       <c r="R25">
-        <v>87.10182906707458</v>
+        <v>618.8682290590801</v>
       </c>
       <c r="S25">
-        <v>0.04626643990065874</v>
+        <v>0.04360307967824339</v>
       </c>
       <c r="T25">
-        <v>0.04626643990065874</v>
+        <v>0.03518610261862284</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.14360676672093</v>
+        <v>8.000355000000001</v>
       </c>
       <c r="H26">
-        <v>7.14360676672093</v>
+        <v>16.00071</v>
       </c>
       <c r="I26">
-        <v>0.2145150643710043</v>
+        <v>0.2272111764307947</v>
       </c>
       <c r="J26">
-        <v>0.2145150643710043</v>
+        <v>0.1638863908419269</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.0354060104542</v>
+        <v>21.396232</v>
       </c>
       <c r="N26">
-        <v>17.0354060104542</v>
+        <v>42.792464</v>
       </c>
       <c r="O26">
-        <v>0.3013360149022807</v>
+        <v>0.3184836144765398</v>
       </c>
       <c r="P26">
-        <v>0.3013360149022807</v>
+        <v>0.2375399353857526</v>
       </c>
       <c r="Q26">
-        <v>121.694241650119</v>
+        <v>171.17745166236</v>
       </c>
       <c r="R26">
-        <v>121.694241650119</v>
+        <v>684.7098066494401</v>
       </c>
       <c r="S26">
-        <v>0.06464111463406466</v>
+        <v>0.07236303671914628</v>
       </c>
       <c r="T26">
-        <v>0.06464111463406466</v>
+        <v>0.0389295626911955</v>
       </c>
     </row>
   </sheetData>
